--- a/DDF/Phase2.1/TY_07/Invoice Summary/Execute2.xlsx
+++ b/DDF/Phase2.1/TY_07/Invoice Summary/Execute2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sushma N\Documents\Bimbo-Phase1-final\Bimbo-Phase1-final\DDF\Phase2.1\TY_07\Invoice Summary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N K Chaitra\Katalon Studio\Merged_Project\02-02-2022\Bimbo Mobile-TY\DDF\Phase2.1\TY_07\Invoice Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20265" windowHeight="7305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -96,19 +96,76 @@
   </si>
   <si>
     <t>TC270</t>
+  </si>
+  <si>
+    <t>UUID</t>
+  </si>
+  <si>
+    <t>Data1</t>
+  </si>
+  <si>
+    <t>Data2</t>
+  </si>
+  <si>
+    <t>Data3</t>
+  </si>
+  <si>
+    <t>Saved Successfully.
+MX</t>
+  </si>
+  <si>
+    <t>:Failure</t>
+  </si>
+  <si>
+    <t>ONSITE INV STATUS: SUCCESS</t>
+  </si>
+  <si>
+    <t>Data4</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Print Preview</t>
+  </si>
+  <si>
+    <t>UUIDLength</t>
+  </si>
+  <si>
+    <t>TC295</t>
+  </si>
+  <si>
+    <t>LUPITA</t>
+  </si>
+  <si>
+    <t>KPBNatAlmeCA420gCU</t>
+  </si>
+  <si>
+    <t>FAILURE</t>
+  </si>
+  <si>
+    <t>TC296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONSITE INV STATUS: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Rockwell"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,9 +188,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,9 +498,11 @@
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +521,26 @@
       <c r="F1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -461,7 +551,7 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -469,7 +559,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -480,7 +570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -491,7 +581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -499,7 +589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -507,15 +597,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -525,8 +617,9 @@
       <c r="F9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -534,12 +627,78 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="C11">
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DDF/Phase2.1/TY_07/Invoice Summary/Execute2.xlsx
+++ b/DDF/Phase2.1/TY_07/Invoice Summary/Execute2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N K Chaitra\Katalon Studio\Merged_Project\02-02-2022\Bimbo Mobile-TY\DDF\Phase2.1\TY_07\Invoice Summary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\2-2-2022\Bimbo Mobile-TY\DDF\Phase2.1\TY_07\Invoice Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20445" windowHeight="6600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -129,43 +129,23 @@
     <t>Print Preview</t>
   </si>
   <si>
-    <t>UUIDLength</t>
-  </si>
-  <si>
-    <t>TC295</t>
-  </si>
-  <si>
-    <t>LUPITA</t>
-  </si>
-  <si>
-    <t>KPBNatAlmeCA420gCU</t>
-  </si>
-  <si>
-    <t>FAILURE</t>
-  </si>
-  <si>
-    <t>TC296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ONSITE INV STATUS: </t>
+    <t>TC_050</t>
+  </si>
+  <si>
+    <t>Add another Reason &amp; Quantity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Rockwell"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,21 +168,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,11 +468,10 @@
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,11 +505,8 @@
       <c r="K1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -551,7 +517,7 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -559,7 +525,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -570,7 +536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -581,7 +547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -589,7 +555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -597,17 +563,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -617,9 +581,8 @@
       <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -627,7 +590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -635,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -657,48 +620,19 @@
       <c r="K14" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="4" t="b">
-        <v>1</v>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
